--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_YORK_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEW_YORK_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1449"/>
+  <dimension ref="A1:D1443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C7">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C32">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C36">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C53">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C58">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C64">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C86">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C89">
@@ -1678,7 +1678,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C99">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C111">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C131">
@@ -2148,12 +2148,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C134">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C137">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C138">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C139">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C146">
@@ -2342,7 +2342,7 @@
         <v>24</v>
       </c>
       <c r="D148">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="149">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C152">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C156">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C162">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C169">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C181">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C194">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C205">
@@ -3161,7 +3161,7 @@
         <v>25</v>
       </c>
       <c r="D211">
-        <v>0.0009525986892242037</v>
+        <v>0.0009525986892242036</v>
       </c>
     </row>
     <row r="212">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C215">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C220">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C223">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C237">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C243">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C246">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C256">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C259">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C262">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C267">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C271">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C276">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C284">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C290">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C295">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C305">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C307">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C310">
@@ -4575,7 +4575,7 @@
         <v>25</v>
       </c>
       <c r="D319">
-        <v>0.0009525986892242037</v>
+        <v>0.0009525986892242036</v>
       </c>
     </row>
     <row r="320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C323">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C325">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C327">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C329">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C334">
@@ -4809,7 +4809,7 @@
         <v>245</v>
       </c>
       <c r="D337">
-        <v>0.009335467154397195</v>
+        <v>0.009335467154397196</v>
       </c>
     </row>
     <row r="338">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C346">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C353">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C358">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C363">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C366">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C369">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C376">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C377">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C380">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C383">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C390">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C394">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C396">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C398">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C406">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C408">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C412">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C413">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C420">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C427">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C433">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C440">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C444">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C449">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C454">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C455">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C456">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C458">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C461">
@@ -6598,7 +6598,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C474">
@@ -7235,7 +7235,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C523">
@@ -7526,7 +7526,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C545">
@@ -7630,14 +7630,14 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C553">
         <v>25</v>
       </c>
       <c r="D553">
-        <v>0.0009525986892242037</v>
+        <v>0.0009525986892242036</v>
       </c>
     </row>
     <row r="554">
@@ -7682,7 +7682,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C557">
@@ -7760,7 +7760,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C563">
@@ -7786,7 +7786,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C565">
@@ -7871,7 +7871,7 @@
         <v>24</v>
       </c>
       <c r="D571">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="572">
@@ -7890,7 +7890,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C573">
@@ -8043,7 +8043,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C584">
@@ -8082,7 +8082,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C587">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C591">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C602">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C606">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C609">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C613">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C618">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C621">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C629">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C632">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C634">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C638">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C640">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C646">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C658">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C660">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C695">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C704">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C745">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C781">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C782">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C805">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C811">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C821">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C829">
@@ -11604,7 +11604,7 @@
         <v>24</v>
       </c>
       <c r="D857">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="858">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C876">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C888">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C889">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C890">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C891">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C892">
@@ -12065,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C893">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C894">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C895">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C897">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C898">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C899">
@@ -12156,7 +12156,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C900">
@@ -12169,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C901">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C904">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C905">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C908">
@@ -12616,7 +12616,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C935">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C940">
@@ -12811,7 +12811,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C950">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C961">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C965">
@@ -13019,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C966">
@@ -13214,7 +13214,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C981">
@@ -13227,7 +13227,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C982">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C986">
@@ -13305,7 +13305,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C988">
@@ -13357,7 +13357,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C992">
@@ -13487,7 +13487,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1002">
@@ -13500,7 +13500,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1003">
@@ -13669,7 +13669,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1016">
@@ -13799,7 +13799,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1026">
@@ -13949,7 +13949,7 @@
         <v>25</v>
       </c>
       <c r="D1037">
-        <v>0.0009525986892242037</v>
+        <v>0.0009525986892242036</v>
       </c>
     </row>
     <row r="1038">
@@ -14007,7 +14007,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1042">
@@ -14059,7 +14059,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1046">
@@ -14072,14 +14072,14 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1047">
         <v>24</v>
       </c>
       <c r="D1047">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="1048">
@@ -14189,7 +14189,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1056">
@@ -14248,7 +14248,7 @@
         <v>256</v>
       </c>
       <c r="D1060">
-        <v>0.009754610577655845</v>
+        <v>0.009754610577655844</v>
       </c>
     </row>
     <row r="1061">
@@ -14293,7 +14293,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1064">
@@ -14306,7 +14306,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1065">
@@ -14319,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1066">
@@ -14397,7 +14397,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1072">
@@ -14423,7 +14423,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1074">
@@ -14436,7 +14436,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1075">
@@ -14449,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1076">
@@ -14514,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1081">
@@ -14670,7 +14670,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1093">
@@ -14696,7 +14696,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1095">
@@ -14729,7 +14729,7 @@
         <v>24</v>
       </c>
       <c r="D1097">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="1098">
@@ -14748,7 +14748,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1099">
@@ -14826,7 +14826,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1105">
@@ -14911,7 +14911,7 @@
         <v>24</v>
       </c>
       <c r="D1111">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="1112">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1121">
@@ -15065,7 +15065,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1123">
@@ -15078,7 +15078,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1124">
@@ -15117,7 +15117,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1127">
@@ -15156,7 +15156,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1130">
@@ -15270,7 +15270,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1138">
@@ -15309,7 +15309,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1141">
@@ -15400,7 +15400,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1148">
@@ -15530,7 +15530,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1158">
@@ -15543,7 +15543,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1159">
@@ -15556,7 +15556,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1160">
@@ -15569,7 +15569,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1161">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1218">
@@ -16361,7 +16361,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1220">
@@ -16374,7 +16374,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1221">
@@ -16439,7 +16439,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1226">
@@ -16543,7 +16543,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1234">
@@ -16582,7 +16582,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1237">
@@ -16595,7 +16595,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1238">
@@ -16608,7 +16608,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1239">
@@ -16647,7 +16647,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1242">
@@ -16738,7 +16738,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1249">
@@ -16842,7 +16842,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1257">
@@ -16875,13 +16875,13 @@
         <v>25</v>
       </c>
       <c r="D1259">
-        <v>0.0009525986892242037</v>
+        <v>0.0009525986892242036</v>
       </c>
     </row>
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1260">
@@ -17120,7 +17120,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1278">
@@ -17159,7 +17159,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1281">
@@ -17250,7 +17250,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1288">
@@ -17289,7 +17289,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1291">
@@ -17315,7 +17315,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1293">
@@ -17530,13 +17530,13 @@
         <v>24</v>
       </c>
       <c r="D1309">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1310">
@@ -17718,7 +17718,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1324">
@@ -17731,7 +17731,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1325">
@@ -17770,7 +17770,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1328">
@@ -17783,7 +17783,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1329">
@@ -17796,7 +17796,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1330">
@@ -17926,7 +17926,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1340">
@@ -17965,7 +17965,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1343">
@@ -17978,7 +17978,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1344">
@@ -18017,7 +18017,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1347">
@@ -18095,7 +18095,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1353">
@@ -18245,13 +18245,13 @@
         <v>25</v>
       </c>
       <c r="D1364">
-        <v>0.0009525986892242037</v>
+        <v>0.0009525986892242036</v>
       </c>
     </row>
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1365">
@@ -18264,7 +18264,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1366">
@@ -18316,7 +18316,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1370">
@@ -18407,7 +18407,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1377">
@@ -18498,7 +18498,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1384">
@@ -18687,7 +18687,7 @@
         <v>24</v>
       </c>
       <c r="D1398">
-        <v>0.0009144947416552355</v>
+        <v>0.0009144947416552356</v>
       </c>
     </row>
     <row r="1399">
@@ -18836,7 +18836,7 @@
     <row r="1410">
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1410">
@@ -18927,7 +18927,7 @@
     <row r="1417">
       <c r="B1417" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1417">
@@ -18940,7 +18940,7 @@
     <row r="1418">
       <c r="B1418" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1418">
@@ -19132,7 +19132,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1432">
@@ -19210,7 +19210,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1438">
@@ -19236,7 +19236,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1440">
@@ -19283,41 +19283,6 @@
       </c>
       <c r="D1443">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
